--- a/DesignCalc/Design.xlsx
+++ b/DesignCalc/Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iitb_study\mtp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iitb_study\mtp\cc1310\software\MTP_Phase_2 _work\Github\Audio-Transmission-and-Reception-over-RF\DesignCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA148C-7438-4998-9ADD-9E8D60ABAD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16121355-B21F-4C72-8DD1-C0D9040EEA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="270" windowWidth="7740" windowHeight="10875" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Transmiter" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="323">
   <si>
     <t>CC1310 RF : Transmitter module  Revised: Thursday, May 21, 2020</t>
   </si>
@@ -946,12 +946,123 @@
   <si>
     <t>TPA2005D1 Audio amplifier</t>
   </si>
+  <si>
+    <t>Transmitter</t>
+  </si>
+  <si>
+    <t>Analog signal conditioning</t>
+  </si>
+  <si>
+    <t>CC1310</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>MCP4921</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>TPS796</t>
+  </si>
+  <si>
+    <t>Audio amplifier TPA2005D1</t>
+  </si>
+  <si>
+    <t>at 5V</t>
+  </si>
+  <si>
+    <t>LED2 180ohm</t>
+  </si>
+  <si>
+    <t>LED1 220 ohm</t>
+  </si>
+  <si>
+    <t>Analog signal conditinging</t>
+  </si>
+  <si>
+    <t>resistence devider</t>
+  </si>
+  <si>
+    <t>5mA</t>
+  </si>
+  <si>
+    <t>15V</t>
+  </si>
+  <si>
+    <t>LF155</t>
+  </si>
+  <si>
+    <t>2mA</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>Transmitter current</t>
+  </si>
+  <si>
+    <t>CC1310 Circuit</t>
+  </si>
+  <si>
+    <t>Opamp LF356</t>
+  </si>
+  <si>
+    <t>resister devider</t>
+  </si>
+  <si>
+    <t>Power regulator</t>
+  </si>
+  <si>
+    <t>LED GREEN</t>
+  </si>
+  <si>
+    <t>LED RED</t>
+  </si>
+  <si>
+    <t>Total current</t>
+  </si>
+  <si>
+    <t>Tx(mVA)</t>
+  </si>
+  <si>
+    <t>Rx (mVA)</t>
+  </si>
+  <si>
+    <t>mamp</t>
+  </si>
+  <si>
+    <t>TX(current)</t>
+  </si>
+  <si>
+    <t>Rx (current)</t>
+  </si>
+  <si>
+    <t>VA (mW)</t>
+  </si>
+  <si>
+    <t>Current@5V</t>
+  </si>
+  <si>
+    <t>at 3.3V</t>
+  </si>
+  <si>
+    <t>at 15V</t>
+  </si>
+  <si>
+    <t>Receiver  current</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,8 +1105,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,8 +1127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1061,10 +1186,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1073,11 +1220,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1100,9 +1306,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1113,11 +1316,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1881,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:D47"/>
     </sheetView>
   </sheetViews>
@@ -3171,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3485630D-0B37-4283-AA6A-2B7383C23397}">
   <dimension ref="C17:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,22 +3549,22 @@
       <c r="E39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
     </row>
     <row r="41" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
@@ -3967,14 +4191,14 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="14"/>
+      <c r="H19" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -4088,123 +4312,641 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897ACA77-0539-40FC-9C86-C3BA69FAA4AF}">
-  <dimension ref="C1:D14"/>
+  <dimension ref="C1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="3:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="18"/>
+      <c r="E3" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="19" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="1">
+        <f>1.2 + (0.0255*48)</f>
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <f>1.2 + (0.0255*48)</f>
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <f>E4*3.3</f>
+        <v>7.9991999999999992</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4*3.3</f>
+        <v>7.9991999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f>5.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5*1.95</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>F5*1.95</f>
+        <v>10.725</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="19" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6*1.95</f>
+        <v>0.46214999999999995</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*1.95</f>
+        <v>0.46214999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="19" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G12" si="0">E7*3.3</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H13" si="1">F7*3.3</f>
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="19" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="19" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="19" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30690000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="19" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54120000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="19" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" ht="84.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4749999999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="84.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="19" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="22">
+        <v>23.5</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22">
+        <f>E13*1.95</f>
+        <v>45.824999999999996</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="19" t="s">
         <v>260</v>
+      </c>
+      <c r="E14" s="23">
+        <f>SUM(E4:E13)</f>
+        <v>27.318000000000001</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUM(F4:F13)</f>
+        <v>8.6609999999999996</v>
+      </c>
+      <c r="G14" s="24">
+        <f>SUM(G4:G13)</f>
+        <v>58.104449999999993</v>
+      </c>
+      <c r="H14" s="25">
+        <f>SUM(H4:H13)</f>
+        <v>20.836349999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" s="1">
+        <f>5/168</f>
+        <v>2.976190476190476E-2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="20">
+        <f>3.3*1000/220</f>
+        <v>15</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="20">
+        <f>3.3*1000/180</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="20">
+        <f>G14</f>
+        <v>58.104449999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="20">
+        <f>5*15</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="20">
+        <f>J22*5</f>
+        <v>0.14880952380952381</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" s="20">
+        <f>E17*5</f>
+        <v>1.3250000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" s="20">
+        <f>E26*3.3</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="20">
+        <f>E27*3.3</f>
+        <v>60.499999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="20">
+        <f>SUM(D36:D41)</f>
+        <v>244.57825952380949</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="26">
+        <f>D43/5</f>
+        <v>48.915651904761901</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="20">
+        <f>H5</f>
+        <v>10.725</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="20">
+        <f>E23*5</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="20">
+        <f>E24*5</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="20">
+        <f>D39</f>
+        <v>1.3250000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" s="20">
+        <f>D40</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="20">
+        <f>D41</f>
+        <v>60.499999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="20">
+        <f>SUM(D50:D55)</f>
+        <v>141.29999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="26">
+        <f>D57/5</f>
+        <v>28.259999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:D3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C59" r:id="rId1" xr:uid="{13097396-B067-43D1-B8F5-C79698EB27B5}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{428018C5-2E90-40D8-B38F-9E02B5439E17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4212,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A587185-8AE3-4232-B7D0-F1147D9D1EF1}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,22 +4963,28 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3">
+        <v>75.510000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4250,14 +4998,17 @@
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4278,7 +5029,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4301,8 +5052,12 @@
         <f>F7*B7</f>
         <v>0.11821</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f>G7*I$3</f>
+        <v>8.9260371000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -4322,11 +5077,15 @@
         <v>0.11821</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G18" si="0">F8*B8</f>
+        <f t="shared" ref="G8:G17" si="0">F8*B8</f>
         <v>0.11821</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H19" si="1">G8*I$3</f>
+        <v>8.9260371000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4349,8 +5108,12 @@
         <f>F9*B9</f>
         <v>6.6189999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9980069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -4373,8 +5136,12 @@
         <f t="shared" si="0"/>
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>22.426470000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4395,8 +5162,12 @@
         <f t="shared" si="0"/>
         <v>4.8563999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>366.70676400000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4419,8 +5190,12 @@
         <f t="shared" si="0"/>
         <v>2.3403</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>176.71605300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4443,8 +5218,12 @@
         <f t="shared" si="0"/>
         <v>0.5292</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>39.959892000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4465,8 +5244,12 @@
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>58.142700000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4487,15 +5270,19 @@
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>58.142700000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>27</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>270</v>
       </c>
       <c r="D16" s="1"/>
@@ -4507,15 +5294,19 @@
         <f>F16*B16</f>
         <v>4.1309999999999999E-2</v>
       </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1193181000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>271</v>
       </c>
       <c r="D17" s="1"/>
@@ -4527,6 +5318,10 @@
         <f t="shared" si="0"/>
         <v>1.474E-2</v>
       </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1130174000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -4535,7 +5330,7 @@
       <c r="B18" s="1">
         <v>6</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="1"/>
@@ -4547,15 +5342,23 @@
         <f>F18*B18</f>
         <v>0.46620000000000006</v>
       </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>35.202762000000007</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f>SUM(G6:G18)</f>
         <v>10.387759999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>784.37975759999995</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4593,10 +5396,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4641,9 +5444,13 @@
       <c r="F27" s="1">
         <v>0.11821</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="16">
         <f>F27*B27</f>
         <v>0.11821</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27*I$3</f>
+        <v>8.9260371000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4665,9 +5472,13 @@
       <c r="F28" s="1">
         <v>0.11821</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" ref="G28:G39" si="1">F28*B28</f>
+      <c r="G28" s="16">
+        <f t="shared" ref="G28:G39" si="2">F28*B28</f>
         <v>0.11821</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:H41" si="3">G28*I$3</f>
+        <v>8.9260371000000003</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4689,9 +5500,13 @@
       <c r="F29" s="1">
         <v>6.6189999999999999E-2</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
+      <c r="G29" s="16">
+        <f t="shared" si="2"/>
         <v>6.6189999999999999E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9980069</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4711,9 +5526,13 @@
       <c r="F30" s="1">
         <v>0.48320000000000002</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
+      <c r="G30" s="16">
+        <f t="shared" si="2"/>
         <v>0.48320000000000002</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>36.486432000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4733,9 +5552,13 @@
       <c r="F31" s="1">
         <v>4.8563999999999998</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
+      <c r="G31" s="16">
+        <f t="shared" si="2"/>
         <v>4.8563999999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>366.70676400000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4757,12 +5580,16 @@
       <c r="F32" s="1">
         <v>2.3403</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
+      <c r="G32" s="16">
+        <f t="shared" si="2"/>
         <v>2.3403</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>176.71605300000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -4781,12 +5608,16 @@
       <c r="F33" s="1">
         <v>1.49</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="1"/>
+      <c r="G33" s="16">
+        <f t="shared" si="2"/>
         <v>1.49</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>112.5099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -4805,12 +5636,16 @@
       <c r="F34" s="1">
         <v>0.35</v>
       </c>
-      <c r="G34" s="1">
-        <f t="shared" si="1"/>
+      <c r="G34" s="16">
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>26.4285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>12</v>
       </c>
@@ -4827,12 +5662,16 @@
       <c r="F35" s="1">
         <v>0.77</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
+      <c r="G35" s="16">
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>58.142700000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>13</v>
       </c>
@@ -4849,19 +5688,23 @@
       <c r="F36" s="1">
         <v>0.77</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
+      <c r="G36" s="16">
+        <f t="shared" si="2"/>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>58.142700000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>14</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>31</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>270</v>
       </c>
       <c r="D37" s="1"/>
@@ -4869,19 +5712,23 @@
       <c r="F37" s="1">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
+      <c r="G37" s="16">
+        <f t="shared" si="2"/>
         <v>4.743E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5814393000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>15</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>8</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>272</v>
       </c>
       <c r="D38" s="1"/>
@@ -4889,19 +5736,23 @@
       <c r="F38" s="1">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
+      <c r="G38" s="16">
+        <f t="shared" si="2"/>
         <v>0.62160000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>46.937016000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>16</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>9</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>273</v>
       </c>
       <c r="D39" s="1"/>
@@ -4909,19 +5760,30 @@
       <c r="F39" s="1">
         <v>1.34E-3</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
+      <c r="G39" s="16">
+        <f t="shared" si="2"/>
         <v>1.2060000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9106506000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1">
+      <c r="G41" s="16">
         <f>SUM(G26:G39)</f>
         <v>12.0436</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="3"/>
+        <v>909.41223600000001</v>
       </c>
     </row>
   </sheetData>
